--- a/Model/BayesLSTM/Univariate/result/Service/JPN.xlsx
+++ b/Model/BayesLSTM/Univariate/result/Service/JPN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>71.16319274902344</v>
+        <v>68.93242645263672</v>
       </c>
       <c r="C2" t="n">
-        <v>69.49156188964844</v>
+        <v>67.01580810546875</v>
       </c>
       <c r="D2" t="n">
-        <v>72.83482360839844</v>
+        <v>70.84904479980469</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>70.81828308105469</v>
+        <v>69.03572082519531</v>
       </c>
       <c r="C3" t="n">
-        <v>69.20114135742188</v>
+        <v>66.85207366943359</v>
       </c>
       <c r="D3" t="n">
-        <v>72.4354248046875</v>
+        <v>71.21936798095703</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>70.93717193603516</v>
+        <v>69.09274291992188</v>
       </c>
       <c r="C4" t="n">
-        <v>69.32175445556641</v>
+        <v>66.60680389404297</v>
       </c>
       <c r="D4" t="n">
-        <v>72.55258941650391</v>
+        <v>71.57868194580078</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>70.89675903320312</v>
+        <v>68.90325164794922</v>
       </c>
       <c r="C5" t="n">
-        <v>69.08486175537109</v>
+        <v>66.73122406005859</v>
       </c>
       <c r="D5" t="n">
-        <v>72.70865631103516</v>
+        <v>71.07527923583984</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>70.68015289306641</v>
+        <v>68.82487487792969</v>
       </c>
       <c r="C6" t="n">
-        <v>69.13124084472656</v>
+        <v>66.40008544921875</v>
       </c>
       <c r="D6" t="n">
-        <v>72.22906494140625</v>
+        <v>71.24966430664062</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>70.94195556640625</v>
+        <v>68.66134643554688</v>
       </c>
       <c r="C7" t="n">
-        <v>69.31514739990234</v>
+        <v>66.46583557128906</v>
       </c>
       <c r="D7" t="n">
-        <v>72.56876373291016</v>
+        <v>70.85685729980469</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>70.98903656005859</v>
+        <v>68.57783508300781</v>
       </c>
       <c r="C8" t="n">
-        <v>69.09634399414062</v>
+        <v>66.75727081298828</v>
       </c>
       <c r="D8" t="n">
-        <v>72.88172912597656</v>
+        <v>70.39839935302734</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>71.15211486816406</v>
+        <v>68.50926971435547</v>
       </c>
       <c r="C9" t="n">
-        <v>69.40401458740234</v>
+        <v>66.84042358398438</v>
       </c>
       <c r="D9" t="n">
-        <v>72.90021514892578</v>
+        <v>70.17811584472656</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>71.24048614501953</v>
+        <v>68.34889221191406</v>
       </c>
       <c r="C10" t="n">
-        <v>69.88114166259766</v>
+        <v>66.55595397949219</v>
       </c>
       <c r="D10" t="n">
-        <v>72.59983062744141</v>
+        <v>70.14183044433594</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>71.14002990722656</v>
+        <v>68.65149688720703</v>
       </c>
       <c r="C11" t="n">
-        <v>70.17877197265625</v>
+        <v>67.32241821289062</v>
       </c>
       <c r="D11" t="n">
-        <v>72.10128784179688</v>
+        <v>69.98057556152344</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>71.17299652099609</v>
+        <v>68.48725128173828</v>
       </c>
       <c r="C12" t="n">
-        <v>70.19325256347656</v>
+        <v>66.96475219726562</v>
       </c>
       <c r="D12" t="n">
-        <v>72.15274047851562</v>
+        <v>70.00975036621094</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>71.09873199462891</v>
+        <v>68.42111968994141</v>
       </c>
       <c r="C13" t="n">
-        <v>69.64615631103516</v>
+        <v>67.00885772705078</v>
       </c>
       <c r="D13" t="n">
-        <v>72.55130767822266</v>
+        <v>69.83338165283203</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>71.02896881103516</v>
+        <v>68.56205749511719</v>
       </c>
       <c r="C14" t="n">
-        <v>69.58730316162109</v>
+        <v>66.78160858154297</v>
       </c>
       <c r="D14" t="n">
-        <v>72.47063446044922</v>
+        <v>70.34250640869141</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>71.08407592773438</v>
+        <v>68.59412384033203</v>
       </c>
       <c r="C15" t="n">
-        <v>69.84629821777344</v>
+        <v>66.51976776123047</v>
       </c>
       <c r="D15" t="n">
-        <v>72.32185363769531</v>
+        <v>70.66847991943359</v>
       </c>
     </row>
     <row r="16">
@@ -659,83 +659,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>71.07450103759766</v>
+        <v>68.69986724853516</v>
       </c>
       <c r="C16" t="n">
-        <v>69.74418640136719</v>
+        <v>67.26375579833984</v>
       </c>
       <c r="D16" t="n">
-        <v>72.40481567382812</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B17" t="n">
-        <v>71.45643615722656</v>
-      </c>
-      <c r="C17" t="n">
-        <v>70.07463836669922</v>
-      </c>
-      <c r="D17" t="n">
-        <v>72.83823394775391</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="n">
-        <v>71.06203460693359</v>
-      </c>
-      <c r="C18" t="n">
-        <v>69.24460601806641</v>
-      </c>
-      <c r="D18" t="n">
-        <v>72.87946319580078</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B19" t="n">
-        <v>71.14464569091797</v>
-      </c>
-      <c r="C19" t="n">
-        <v>69.57655334472656</v>
-      </c>
-      <c r="D19" t="n">
-        <v>72.71273803710938</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B20" t="n">
-        <v>71.11664581298828</v>
-      </c>
-      <c r="C20" t="n">
-        <v>69.62648773193359</v>
-      </c>
-      <c r="D20" t="n">
-        <v>72.60680389404297</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B21" t="n">
-        <v>71.0343017578125</v>
-      </c>
-      <c r="C21" t="n">
-        <v>69.97320556640625</v>
-      </c>
-      <c r="D21" t="n">
-        <v>72.09539794921875</v>
+        <v>70.13597869873047</v>
       </c>
     </row>
   </sheetData>
@@ -781,72 +711,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>69.48159027099609</v>
+        <v>68.72537994384766</v>
       </c>
       <c r="C2" t="n">
-        <v>68.40608641000038</v>
+        <v>67.28041076660156</v>
       </c>
       <c r="D2" t="n">
-        <v>70.5570941319918</v>
+        <v>70.17034912109375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>69.61274719238281</v>
+        <v>68.59235382080078</v>
       </c>
       <c r="C3" t="n">
-        <v>68.58619202664261</v>
+        <v>67.16033935546875</v>
       </c>
       <c r="D3" t="n">
-        <v>70.63930235812302</v>
+        <v>70.02436828613281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>70.25667648315429</v>
+        <v>68.70116424560547</v>
       </c>
       <c r="C4" t="n">
-        <v>68.56286017096325</v>
+        <v>67.19925689697266</v>
       </c>
       <c r="D4" t="n">
-        <v>71.95049279534534</v>
+        <v>70.20307159423828</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>68.24408416748047</v>
+        <v>68.70175170898438</v>
       </c>
       <c r="C5" t="n">
-        <v>66.90961847273614</v>
+        <v>67.22278594970703</v>
       </c>
       <c r="D5" t="n">
-        <v>69.57854986222479</v>
+        <v>70.18071746826172</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>71.00333251953126</v>
+        <v>68.68425750732422</v>
       </c>
       <c r="C6" t="n">
-        <v>69.71009921453529</v>
+        <v>66.86540985107422</v>
       </c>
       <c r="D6" t="n">
-        <v>72.29656582452722</v>
+        <v>70.50310516357422</v>
       </c>
     </row>
   </sheetData>
@@ -895,13 +825,13 @@
         <v>2002</v>
       </c>
       <c r="B2" t="n">
-        <v>71.28477478027344</v>
+        <v>69.90705871582031</v>
       </c>
       <c r="C2" t="n">
-        <v>69.73899078369141</v>
+        <v>68.98831939697266</v>
       </c>
       <c r="D2" t="n">
-        <v>72.83055877685547</v>
+        <v>70.82579803466797</v>
       </c>
     </row>
     <row r="3">
@@ -909,13 +839,13 @@
         <v>2003</v>
       </c>
       <c r="B3" t="n">
-        <v>71.06986999511719</v>
+        <v>69.5947265625</v>
       </c>
       <c r="C3" t="n">
-        <v>70.07661437988281</v>
+        <v>68.23987579345703</v>
       </c>
       <c r="D3" t="n">
-        <v>72.06312561035156</v>
+        <v>70.94957733154297</v>
       </c>
     </row>
     <row r="4">
@@ -923,13 +853,13 @@
         <v>2004</v>
       </c>
       <c r="B4" t="n">
-        <v>70.83515930175781</v>
+        <v>69.61988830566406</v>
       </c>
       <c r="C4" t="n">
-        <v>69.44026184082031</v>
+        <v>68.47933197021484</v>
       </c>
       <c r="D4" t="n">
-        <v>72.23005676269531</v>
+        <v>70.76044464111328</v>
       </c>
     </row>
     <row r="5">
@@ -937,13 +867,13 @@
         <v>2005</v>
       </c>
       <c r="B5" t="n">
-        <v>70.93476104736328</v>
+        <v>70.13375091552734</v>
       </c>
       <c r="C5" t="n">
-        <v>69.50216674804688</v>
+        <v>69.01372528076172</v>
       </c>
       <c r="D5" t="n">
-        <v>72.36735534667969</v>
+        <v>71.25377655029297</v>
       </c>
     </row>
     <row r="6">
@@ -951,13 +881,13 @@
         <v>2006</v>
       </c>
       <c r="B6" t="n">
-        <v>70.77368927001953</v>
+        <v>70.00146484375</v>
       </c>
       <c r="C6" t="n">
-        <v>69.53556060791016</v>
+        <v>68.85051727294922</v>
       </c>
       <c r="D6" t="n">
-        <v>72.01181793212891</v>
+        <v>71.15241241455078</v>
       </c>
     </row>
     <row r="7">
@@ -965,13 +895,13 @@
         <v>2007</v>
       </c>
       <c r="B7" t="n">
-        <v>71.4608154296875</v>
+        <v>69.95051574707031</v>
       </c>
       <c r="C7" t="n">
-        <v>70.23557281494141</v>
+        <v>68.77371215820312</v>
       </c>
       <c r="D7" t="n">
-        <v>72.68605804443359</v>
+        <v>71.1273193359375</v>
       </c>
     </row>
     <row r="8">
@@ -979,13 +909,13 @@
         <v>2008</v>
       </c>
       <c r="B8" t="n">
-        <v>71.11765289306641</v>
+        <v>69.66078186035156</v>
       </c>
       <c r="C8" t="n">
-        <v>70.109130859375</v>
+        <v>68.12778472900391</v>
       </c>
       <c r="D8" t="n">
-        <v>72.12617492675781</v>
+        <v>71.19377899169922</v>
       </c>
     </row>
     <row r="9">
@@ -993,13 +923,13 @@
         <v>2009</v>
       </c>
       <c r="B9" t="n">
-        <v>71.71621704101562</v>
+        <v>69.58750915527344</v>
       </c>
       <c r="C9" t="n">
-        <v>70.32388305664062</v>
+        <v>68.08196258544922</v>
       </c>
       <c r="D9" t="n">
-        <v>73.10855102539062</v>
+        <v>71.09305572509766</v>
       </c>
     </row>
     <row r="10">
@@ -1007,13 +937,13 @@
         <v>2010</v>
       </c>
       <c r="B10" t="n">
-        <v>71.38032531738281</v>
+        <v>69.51716613769531</v>
       </c>
       <c r="C10" t="n">
-        <v>69.64946746826172</v>
+        <v>67.90050506591797</v>
       </c>
       <c r="D10" t="n">
-        <v>73.11118316650391</v>
+        <v>71.13382720947266</v>
       </c>
     </row>
     <row r="11">
@@ -1021,13 +951,13 @@
         <v>2011</v>
       </c>
       <c r="B11" t="n">
-        <v>71.18062591552734</v>
+        <v>69.30783843994141</v>
       </c>
       <c r="C11" t="n">
-        <v>69.90515899658203</v>
+        <v>68.19400787353516</v>
       </c>
       <c r="D11" t="n">
-        <v>72.45609283447266</v>
+        <v>70.42166900634766</v>
       </c>
     </row>
     <row r="12">
@@ -1035,13 +965,13 @@
         <v>2012</v>
       </c>
       <c r="B12" t="n">
-        <v>71.43788146972656</v>
+        <v>69.48834991455078</v>
       </c>
       <c r="C12" t="n">
-        <v>69.99100494384766</v>
+        <v>68.13481140136719</v>
       </c>
       <c r="D12" t="n">
-        <v>72.88475799560547</v>
+        <v>70.84188842773438</v>
       </c>
     </row>
     <row r="13">
@@ -1049,13 +979,13 @@
         <v>2013</v>
       </c>
       <c r="B13" t="n">
-        <v>71.59973907470703</v>
+        <v>69.34707641601562</v>
       </c>
       <c r="C13" t="n">
-        <v>70.07977294921875</v>
+        <v>68.23908996582031</v>
       </c>
       <c r="D13" t="n">
-        <v>73.11970520019531</v>
+        <v>70.45506286621094</v>
       </c>
     </row>
     <row r="14">
@@ -1063,13 +993,13 @@
         <v>2014</v>
       </c>
       <c r="B14" t="n">
-        <v>71.40813446044922</v>
+        <v>69.31895446777344</v>
       </c>
       <c r="C14" t="n">
-        <v>69.94066619873047</v>
+        <v>67.84796142578125</v>
       </c>
       <c r="D14" t="n">
-        <v>72.87560272216797</v>
+        <v>70.78994750976562</v>
       </c>
     </row>
     <row r="15">
@@ -1077,13 +1007,13 @@
         <v>2015</v>
       </c>
       <c r="B15" t="n">
-        <v>71.41963195800781</v>
+        <v>69.34861755371094</v>
       </c>
       <c r="C15" t="n">
-        <v>69.95816802978516</v>
+        <v>67.90361022949219</v>
       </c>
       <c r="D15" t="n">
-        <v>72.88109588623047</v>
+        <v>70.79362487792969</v>
       </c>
     </row>
     <row r="16">
@@ -1091,13 +1021,13 @@
         <v>2016</v>
       </c>
       <c r="B16" t="n">
-        <v>71.51129913330078</v>
+        <v>69.66445159912109</v>
       </c>
       <c r="C16" t="n">
-        <v>70.34077453613281</v>
+        <v>67.67955780029297</v>
       </c>
       <c r="D16" t="n">
-        <v>72.68182373046875</v>
+        <v>71.64934539794922</v>
       </c>
     </row>
     <row r="17">
@@ -1105,13 +1035,13 @@
         <v>2017</v>
       </c>
       <c r="B17" t="n">
-        <v>71.15017700195312</v>
+        <v>69.41737365722656</v>
       </c>
       <c r="C17" t="n">
-        <v>69.75352478027344</v>
+        <v>67.65737915039062</v>
       </c>
       <c r="D17" t="n">
-        <v>72.54682922363281</v>
+        <v>71.1773681640625</v>
       </c>
     </row>
     <row r="18">
@@ -1119,13 +1049,13 @@
         <v>2018</v>
       </c>
       <c r="B18" t="n">
-        <v>72.02024078369141</v>
+        <v>69.80210876464844</v>
       </c>
       <c r="C18" t="n">
-        <v>70.60396575927734</v>
+        <v>68.38166046142578</v>
       </c>
       <c r="D18" t="n">
-        <v>73.43651580810547</v>
+        <v>71.22255706787109</v>
       </c>
     </row>
     <row r="19">
@@ -1133,13 +1063,13 @@
         <v>2019</v>
       </c>
       <c r="B19" t="n">
-        <v>71.08193969726562</v>
+        <v>69.59737396240234</v>
       </c>
       <c r="C19" t="n">
-        <v>69.41149139404297</v>
+        <v>67.452392578125</v>
       </c>
       <c r="D19" t="n">
-        <v>72.75238800048828</v>
+        <v>71.74235534667969</v>
       </c>
     </row>
     <row r="20">
@@ -1147,13 +1077,13 @@
         <v>2020</v>
       </c>
       <c r="B20" t="n">
-        <v>71.57746887207031</v>
+        <v>70.08635711669922</v>
       </c>
       <c r="C20" t="n">
-        <v>70.552490234375</v>
+        <v>68.4954833984375</v>
       </c>
       <c r="D20" t="n">
-        <v>72.60244750976562</v>
+        <v>71.67723083496094</v>
       </c>
     </row>
     <row r="21">
@@ -1161,13 +1091,13 @@
         <v>2021</v>
       </c>
       <c r="B21" t="n">
-        <v>71.63072204589844</v>
+        <v>69.94230651855469</v>
       </c>
       <c r="C21" t="n">
-        <v>70.27104187011719</v>
+        <v>68.66115570068359</v>
       </c>
       <c r="D21" t="n">
-        <v>72.99040222167969</v>
+        <v>71.22345733642578</v>
       </c>
     </row>
   </sheetData>
@@ -1216,13 +1146,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>68.70340118408203</v>
+        <v>70.77301788330078</v>
       </c>
       <c r="C2" t="n">
-        <v>67.46370966801952</v>
+        <v>69.73335827731421</v>
       </c>
       <c r="D2" t="n">
-        <v>69.94309270014453</v>
+        <v>71.81267748928735</v>
       </c>
     </row>
     <row r="3">
@@ -1230,13 +1160,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>69.71176757812501</v>
+        <v>68.19083709716797</v>
       </c>
       <c r="C3" t="n">
-        <v>68.24598485503084</v>
+        <v>66.82974358699352</v>
       </c>
       <c r="D3" t="n">
-        <v>71.17755030121917</v>
+        <v>69.55193060734243</v>
       </c>
     </row>
     <row r="4">
@@ -1244,13 +1174,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>69.0366714477539</v>
+        <v>70.62777709960938</v>
       </c>
       <c r="C4" t="n">
-        <v>67.01862492063259</v>
+        <v>68.62758339949336</v>
       </c>
       <c r="D4" t="n">
-        <v>71.05471797487522</v>
+        <v>72.62797079972539</v>
       </c>
     </row>
     <row r="5">
@@ -1258,13 +1188,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>68.32312698364258</v>
+        <v>70.43970260620117</v>
       </c>
       <c r="C5" t="n">
-        <v>66.14644980969898</v>
+        <v>69.82353930600596</v>
       </c>
       <c r="D5" t="n">
-        <v>70.49980415758618</v>
+        <v>71.05586590639638</v>
       </c>
     </row>
     <row r="6">
@@ -1272,13 +1202,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>71.60871276855468</v>
+        <v>69.7889419555664</v>
       </c>
       <c r="C6" t="n">
-        <v>70.58969101427991</v>
+        <v>68.49597941874789</v>
       </c>
       <c r="D6" t="n">
-        <v>72.62773452282946</v>
+        <v>71.08190449238491</v>
       </c>
     </row>
   </sheetData>
